--- a/yxt/记账.xlsx
+++ b/yxt/记账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物业7-9月、水费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郑小宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,6 +65,50 @@
   </si>
   <si>
     <t>预交气费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾桶、扫把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-9月物业费、水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公椅（陈）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公椅（其他）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶装水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,16 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -460,7 +500,7 @@
       </c>
       <c r="F2">
         <f>SUM(D2:D86)</f>
-        <v>-1593.31</v>
+        <v>-907.01</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -468,7 +508,7 @@
         <v>43293</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -476,13 +516,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43293</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43293</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>87.09</v>
@@ -490,13 +530,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43293</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43293</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -504,13 +544,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>43293</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>46.7</v>
@@ -518,13 +558,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>43293</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>12.9</v>
@@ -535,7 +575,7 @@
         <v>43293</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>150</v>
@@ -546,10 +586,80 @@
         <v>43293</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43297</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43297</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/yxt/记账.xlsx
+++ b/yxt/记账.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,14 @@
   </si>
   <si>
     <t>桶装水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军床（休息床）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雪婷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,7 +508,7 @@
       </c>
       <c r="F2">
         <f>SUM(D2:D86)</f>
-        <v>-907.01</v>
+        <v>-808.01</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -660,6 +668,20 @@
       </c>
       <c r="D14">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43297</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
